--- a/Datos/Anuario2024/130503_PalauDeLesArts.xlsx
+++ b/Datos/Anuario2024/130503_PalauDeLesArts.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="817"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="24" r:id="rId1"/>
+    <sheet name="1" sheetId="26" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -49,72 +55,564 @@
     <definedName name="_R7_1">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="162">
+  <si>
+    <t>PALAU DE LES ARTS</t>
+  </si>
+  <si>
+    <t>Fuente: Palau de les Arts Reina Sofía.</t>
+  </si>
+  <si>
+    <t>Aula Magistral</t>
+  </si>
+  <si>
+    <t>Teatro Martín i Soler</t>
+  </si>
+  <si>
+    <t>Teatre Martín i Soler</t>
+  </si>
+  <si>
+    <t>Auditorio Superior</t>
+  </si>
+  <si>
+    <t>Auditori Superior</t>
+  </si>
+  <si>
+    <t>Sala Principal</t>
+  </si>
+  <si>
+    <t>Salas</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Matins a Les Arts</t>
+  </si>
+  <si>
+    <t>Mark Elder</t>
+  </si>
+  <si>
+    <t>James Gaffigan</t>
+  </si>
+  <si>
+    <t>Sol Picó</t>
+  </si>
+  <si>
+    <t>Recaudación</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Público</t>
+  </si>
+  <si>
+    <t>Período de representación</t>
+  </si>
+  <si>
+    <t>Representaciones</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>Autoría</t>
+  </si>
+  <si>
+    <t>Obras</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El retablo de maese Pedro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Stuarda </t>
+  </si>
+  <si>
+    <t>Pan y Toros</t>
+  </si>
+  <si>
+    <t>Opening Night</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Malditas plumas</t>
+  </si>
+  <si>
+    <t>Marina Rebeka</t>
+  </si>
+  <si>
+    <t>Andrè Schuen</t>
+  </si>
+  <si>
+    <t>Marianne Crebassa</t>
+  </si>
+  <si>
+    <t>Lise Davidsen</t>
+  </si>
+  <si>
+    <t>Gerald Finley</t>
+  </si>
+  <si>
+    <t>Juan Diego Flórez</t>
+  </si>
+  <si>
+    <t>Más allá del bien y del mal</t>
+  </si>
+  <si>
+    <t>Forgotten Arias</t>
+  </si>
+  <si>
+    <t>Gustavo Gimeno</t>
+  </si>
+  <si>
+    <t>Antonello Manacorda</t>
+  </si>
+  <si>
+    <t>Andrés Orozco-Estrada</t>
+  </si>
+  <si>
+    <t>Fabio Luisi</t>
+  </si>
+  <si>
+    <t>L'universo sulla pelle</t>
+  </si>
+  <si>
+    <t>La soberbia abatida por la humildad de San Miguel</t>
+  </si>
+  <si>
+    <t>Mediterrània</t>
+  </si>
+  <si>
+    <t>Afectos amantes</t>
+  </si>
+  <si>
+    <t>Marina Heredia</t>
+  </si>
+  <si>
+    <t>Alba Molina</t>
+  </si>
+  <si>
+    <t>Vicente Amigo</t>
+  </si>
+  <si>
+    <t>Rufus Wainwright</t>
+  </si>
+  <si>
+    <t>Pep Gimeno “Botifarra”</t>
+  </si>
+  <si>
+    <t>Neus Ferri</t>
+  </si>
+  <si>
+    <t>Marala</t>
+  </si>
+  <si>
+    <t>Mireia Vives i Borja Penalva</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Bizet</t>
+  </si>
+  <si>
+    <t>Brahms</t>
+  </si>
+  <si>
+    <t>Brahms, Mozart</t>
+  </si>
+  <si>
+    <t>Palau, Debussy, Berlioz</t>
+  </si>
+  <si>
+    <t>Mozart, Bartók</t>
+  </si>
+  <si>
+    <t>Richard Strauss</t>
+  </si>
+  <si>
+    <t>R. Strauss, Mozart</t>
+  </si>
+  <si>
+    <t>Mahler, Shostakóvich</t>
+  </si>
+  <si>
+    <t>Albéniz, Wagner, Chaikovski</t>
+  </si>
+  <si>
+    <t>Sibelius, Mahler</t>
+  </si>
+  <si>
+    <t>Francisco Hernández Illana</t>
+  </si>
+  <si>
+    <t>Janáček</t>
+  </si>
+  <si>
+    <t>Viardot</t>
+  </si>
+  <si>
+    <t>Händel</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Monteverdi</t>
+  </si>
+  <si>
+    <t>Verdi</t>
+  </si>
+  <si>
+    <t>Bushra El-Turk</t>
+  </si>
+  <si>
+    <t>Chaikovski</t>
+  </si>
+  <si>
+    <t>Falla</t>
+  </si>
+  <si>
+    <t>Donizetti</t>
+  </si>
+  <si>
+    <t>Asenjo Barbieri</t>
+  </si>
+  <si>
+    <t>Jenůfa</t>
+  </si>
+  <si>
+    <t>Cendrillon</t>
+  </si>
+  <si>
+    <t>Alcina</t>
+  </si>
+  <si>
+    <t>Don Giovanni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tristan und Isolde </t>
+  </si>
+  <si>
+    <t>L’incoronazione di Poppea</t>
+  </si>
+  <si>
+    <t>Ernani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woman at Point Zero </t>
+  </si>
+  <si>
+    <t>Dutch National Opera</t>
+  </si>
+  <si>
+    <t>Producción: Palau de les Arts</t>
+  </si>
+  <si>
+    <t>Les Musiciens du Louvre</t>
+  </si>
+  <si>
+    <t>Producción: Teatro de La Fenice</t>
+  </si>
+  <si>
+    <t>Producción: Opéra de Lyon</t>
+  </si>
+  <si>
+    <t>Capella Mediterranea</t>
+  </si>
+  <si>
+    <t>Producción: Palau de les Arts, Teatro La Fenice</t>
+  </si>
+  <si>
+    <t>Producción: LOD muziekteater, All Aria's festival, Royal Opera House, Shubba Festival, Festival d'Aix-en-Provence, Snape Maltings, Grand Théâtre de Luxembourg</t>
+  </si>
+  <si>
+    <t>Producción: Welsh National Opera, Norske Opera, Teatro Comunale di Bologna, Canadian Opera Company</t>
+  </si>
+  <si>
+    <t>Producción: Teatro Real, Festival de Granada, Compañía Etcétera</t>
+  </si>
+  <si>
+    <t>Producción: Palau de les Arts, Dutch National Opera, Teatro di San Carlo</t>
+  </si>
+  <si>
+    <t>Producción: Teatro de la Zarzuela</t>
+  </si>
+  <si>
+    <t>La Veronal</t>
+  </si>
+  <si>
+    <t>Compañía Nacional de Danza</t>
+  </si>
+  <si>
+    <t>Jakub Józef Orliński, Il Pomo d'Oro</t>
+  </si>
+  <si>
+    <t>Philippe Jaroussky, Le Concert de la Loge</t>
+  </si>
+  <si>
+    <t>La Tendresa</t>
+  </si>
+  <si>
+    <t>Concerto 1700</t>
+  </si>
+  <si>
+    <t>Capella de Ministrers</t>
+  </si>
+  <si>
+    <t>Al Ayre Español</t>
+  </si>
+  <si>
+    <t>Pep Gimeno "Botifarra"</t>
+  </si>
+  <si>
+    <t>Mozart</t>
+  </si>
+  <si>
+    <t>Mahler</t>
+  </si>
+  <si>
+    <t>28** de septiembre, 1, 4, 7, 10 y 14 de octubre</t>
+  </si>
+  <si>
+    <t>10 de noviembre</t>
+  </si>
+  <si>
+    <t>10, 13, 16, 19 y 22 de diciembre</t>
+  </si>
+  <si>
+    <t>2**, 4, 8, 11 y 12 de noviembre</t>
+  </si>
+  <si>
+    <t>13 y 14 de mayo</t>
+  </si>
+  <si>
+    <t>29, 30 de junio, 1 y 2 de julio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27, 28 y 29 de octubre </t>
+  </si>
+  <si>
+    <t>4 de febrero</t>
+  </si>
+  <si>
+    <t>1 de abril</t>
+  </si>
+  <si>
+    <t>7 de mayo</t>
+  </si>
+  <si>
+    <t>11 de octubre</t>
+  </si>
+  <si>
+    <t>3 de diciembre</t>
+  </si>
+  <si>
+    <t>28 de mayo</t>
+  </si>
+  <si>
+    <t>29 de octubre</t>
+  </si>
+  <si>
+    <t>30 de noviembre</t>
+  </si>
+  <si>
+    <t>26 y 28* de enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 y 11* de febrero </t>
+  </si>
+  <si>
+    <t>24 y 25* de marzo</t>
+  </si>
+  <si>
+    <t>10 de mayo</t>
+  </si>
+  <si>
+    <t>8 y 9* de junio</t>
+  </si>
+  <si>
+    <t>1, 2 y 10 de septiembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 y 21* de octubre </t>
+  </si>
+  <si>
+    <t>16** y 17* de noviembre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 17*** y 20* de diciembre </t>
+  </si>
+  <si>
+    <t>22 de marzo</t>
+  </si>
+  <si>
+    <t>23 de marzo</t>
+  </si>
+  <si>
+    <t>29 de marzo</t>
+  </si>
+  <si>
+    <t>31 de marzo</t>
+  </si>
+  <si>
+    <t>24 de febrero</t>
+  </si>
+  <si>
+    <t>19 de mayo</t>
+  </si>
+  <si>
+    <t>3 de noviembre</t>
+  </si>
+  <si>
+    <t>19 de abril</t>
+  </si>
+  <si>
+    <t>6 de octubre</t>
+  </si>
+  <si>
+    <t>13 de enero</t>
+  </si>
+  <si>
+    <t>20 de enero</t>
+  </si>
+  <si>
+    <t>21 de enero</t>
+  </si>
+  <si>
+    <t>27 de enero</t>
+  </si>
+  <si>
+    <t>28 de enero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 de febrero/5 de marzo 
+2 de abril/7 de mayo  </t>
+  </si>
+  <si>
+    <t>19, 22, 24, 27 y 29 de enero</t>
+  </si>
+  <si>
+    <t>19 de febrero</t>
+  </si>
+  <si>
+    <t>27** febrero y 2, 4, 7, 10 y 12 de marzo</t>
+  </si>
+  <si>
+    <t>17**, 20, 23, 26, 29 de abril y 3 de mayo</t>
+  </si>
+  <si>
+    <t>9**, 11, 13, 14 y 16 de mayo</t>
+  </si>
+  <si>
+    <t>4**, 7, 10, 13, 16, 18 de junio</t>
+  </si>
+  <si>
+    <t>15 de septiembre</t>
+  </si>
+  <si>
+    <t>9, 13*, 14*, 16 y 18 de febrero</t>
+  </si>
+  <si>
+    <t>1. Palau de les Arts Reina Sofía. Representaciones y espectadores. 2023</t>
+  </si>
+  <si>
+    <t>Orquesta de la Comunitat Valenciana</t>
+  </si>
+  <si>
+    <t>Serafín Zubiri, Orquesta de la Comunitat Valenciana</t>
+  </si>
+  <si>
+    <t>Orquesta de la Comunitat Valenciana, Corazón de la Generalitat Valenciana, Centro de Perfeccionamiento</t>
+  </si>
+  <si>
+    <t>Mireia Vives y Borja Penalva</t>
+  </si>
+  <si>
+    <t>50 años sin Nino Bravo</t>
+  </si>
+  <si>
+    <t>La dama de picas</t>
+  </si>
+  <si>
+    <t>Nota: (*) Función realizada en Castelló de la Plana. (**) Concierto realizado en el Palau de la Música. (***) Concierto realizado en Alicante.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -144,86 +642,74 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -233,6 +719,7 @@
     <cellStyle name="Normal 4" xfId="3"/>
     <cellStyle name="Porcentaje 2" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -301,13 +788,31 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFE397"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFBE3B"/>
+      <color rgb="FF800000"/>
+      <color rgb="FFFFBF61"/>
+      <color rgb="FFFFD88B"/>
+      <color rgb="FFFFE4AF"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -548,8 +1053,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="7.3d"/>
       <sheetName val="7.3b"/>
@@ -5050,8 +5555,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -5751,1887 +6256,1444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="25.7109375" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>PALAU DE LES ARTS</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="24.7109375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="27.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="45.7109375" customWidth="1" style="1" min="3" max="3"/>
-    <col width="17.5703125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="27.28515625" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.85546875" customWidth="1" style="1" min="6" max="7"/>
-    <col width="14.5703125" customWidth="1" style="1" min="8" max="8"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>1. Palau de les Arts Reina Sofía. Representaciones y espectadores. 2023</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2">
-      <c r="A2" s="14" t="n"/>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="10" t="n"/>
-      <c r="D2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="1">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>Obras</t>
-        </is>
-      </c>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>Autoría</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Producción</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Representaciones</t>
-        </is>
-      </c>
-      <c r="E3" s="23" t="inlineStr">
-        <is>
-          <t>Período de representación</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="inlineStr">
-        <is>
-          <t>Público</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>Recaudación</t>
-        </is>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="1">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>Jenůfa</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Janáček</t>
-        </is>
-      </c>
-      <c r="C4" s="18" t="inlineStr">
-        <is>
-          <t>Dutch National Opera</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>19, 22, 24, 27 y 29 de enero</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="3">
         <v>4216</v>
       </c>
       <c r="G4" s="3">
-        <f>F4/D4</f>
-        <v/>
-      </c>
-      <c r="H4" s="26" t="n">
+        <f t="shared" ref="G4:G33" si="0">F4/D4</f>
+        <v>843.2</v>
+      </c>
+      <c r="H4" s="22">
         <v>301299.49</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="1">
-      <c r="A5" s="27" t="inlineStr">
-        <is>
-          <t>Cendrillon</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Viardot</t>
-        </is>
-      </c>
-      <c r="C5" s="21" t="inlineStr">
-        <is>
-          <t>Producción: Palau de les Arts</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="20" t="inlineStr">
-        <is>
-          <t>9, 13*, 14*, 16 y 18 de febrero</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="5">
         <v>1701</v>
       </c>
       <c r="G5" s="5">
-        <f>F5/D5</f>
-        <v/>
-      </c>
-      <c r="H5" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>425.25</v>
+      </c>
+      <c r="H5" s="19">
         <v>29374.05</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="1">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>Alcina</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Händel</t>
-        </is>
-      </c>
-      <c r="C6" s="18" t="inlineStr">
-        <is>
-          <t>Les Musiciens du Louvre</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>19 de febrero</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="3">
         <v>1235</v>
       </c>
       <c r="G6" s="3">
-        <f>F6/D6</f>
-        <v/>
-      </c>
-      <c r="H6" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>1235</v>
+      </c>
+      <c r="H6" s="22">
         <v>49326.69</v>
       </c>
     </row>
-    <row r="7" ht="25.5" customHeight="1" s="1">
-      <c r="A7" s="27" t="inlineStr">
-        <is>
-          <t>Don Giovanni</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Mozart</t>
-        </is>
-      </c>
-      <c r="C7" s="21" t="inlineStr">
-        <is>
-          <t>Producción: Teatro de La Fenice</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="n">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="25" t="inlineStr">
-        <is>
-          <t>27** febrero y 2, 4, 7, 10 y 12 de marzo</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="n">
+      <c r="E7" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="5">
         <v>8827</v>
       </c>
       <c r="G7" s="5">
-        <f>F7/D7</f>
-        <v/>
-      </c>
-      <c r="H7" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>1471.1666666666667</v>
+      </c>
+      <c r="H7" s="19">
         <v>702887.2699999999</v>
       </c>
     </row>
-    <row r="8" ht="25.5" customHeight="1" s="1">
-      <c r="A8" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tristan und Isolde </t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Wagner</t>
-        </is>
-      </c>
-      <c r="C8" s="18" t="inlineStr">
-        <is>
-          <t>Producción: Opéra de Lyon</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>17**, 20, 23, 26, 29 de abril y 3 de mayo</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="E8" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="3">
         <v>7824</v>
       </c>
       <c r="G8" s="3">
-        <f>F8/D8</f>
-        <v/>
-      </c>
-      <c r="H8" s="26" t="n">
-        <v>562049.7000000001</v>
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+      <c r="H8" s="22">
+        <v>562049.70000000007</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="1">
-      <c r="A9" s="27" t="inlineStr">
-        <is>
-          <t>L’incoronazione di Poppea</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Monteverdi</t>
-        </is>
-      </c>
-      <c r="C9" s="21" t="inlineStr">
-        <is>
-          <t>Capella Mediterranea</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="n">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="20" t="inlineStr">
-        <is>
-          <t>9**, 11, 13, 14 y 16 de mayo</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="n">
+      <c r="E9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="5">
         <v>1582</v>
       </c>
       <c r="G9" s="5">
-        <f>F9/D9</f>
-        <v/>
-      </c>
-      <c r="H9" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>316.39999999999998</v>
+      </c>
+      <c r="H9" s="19">
         <v>59725.29</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="1">
-      <c r="A10" s="13" t="inlineStr">
-        <is>
-          <t>Ernani</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Verdi</t>
-        </is>
-      </c>
-      <c r="C10" s="18" t="inlineStr">
-        <is>
-          <t>Producción: Palau de les Arts, Teatro La Fenice</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>4**, 7, 10, 13, 16, 18 de junio</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="E10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="3">
         <v>1174</v>
       </c>
       <c r="G10" s="3">
-        <f>F10/D10</f>
-        <v/>
-      </c>
-      <c r="H10" s="26" t="n">
-        <v>457828.59</v>
+        <f t="shared" si="0"/>
+        <v>195.66666666666666</v>
+      </c>
+      <c r="H10" s="22">
+        <v>457828.58999999997</v>
       </c>
     </row>
-    <row r="11" ht="42" customHeight="1" s="1">
-      <c r="A11" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Woman at Point Zero </t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Bushra El-Turk</t>
-        </is>
-      </c>
-      <c r="C11" s="21" t="inlineStr">
-        <is>
-          <t>Producción: LOD muziekteater, All Aria's festival, Royal Opera House, Shubba Festival, Festival d'Aix-en-Provence, Snape Maltings, Grand Théâtre de Luxembourg</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="n">
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="20" t="inlineStr">
-        <is>
-          <t>15 de septiembre</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="E11" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="5">
         <v>378</v>
       </c>
       <c r="G11" s="5">
-        <f>F11/D11</f>
-        <v/>
-      </c>
-      <c r="H11" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="H11" s="19">
         <v>6676</v>
       </c>
     </row>
-    <row r="12" ht="25.5" customHeight="1" s="1">
-      <c r="A12" s="13" t="inlineStr">
-        <is>
-          <t>La dama de picas</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Chaikovski</t>
-        </is>
-      </c>
-      <c r="C12" s="18" t="inlineStr">
-        <is>
-          <t>Producción: Welsh National Opera, Norske Opera, Teatro Comunale di Bologna, Canadian Opera Company</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>28** de septiembre, 1, 4, 7, 10 y 14 de octubre</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="E12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="3">
         <v>6218</v>
       </c>
       <c r="G12" s="3">
-        <f>F12/D12</f>
-        <v/>
-      </c>
-      <c r="H12" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>1243.5999999999999</v>
+      </c>
+      <c r="H12" s="22">
         <v>423918.17</v>
       </c>
     </row>
-    <row r="13" ht="25.5" customHeight="1" s="1">
-      <c r="A13" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El retablo de maese Pedro </t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>Falla</t>
-        </is>
-      </c>
-      <c r="C13" s="21" t="inlineStr">
-        <is>
-          <t>Producción: Teatro Real, Festival de Granada, Compañía Etcétera</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="20" t="inlineStr">
-        <is>
-          <t>10 de noviembre</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="n">
+      <c r="E13" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="5">
         <v>2227</v>
       </c>
       <c r="G13" s="5">
-        <f>F13/D13</f>
-        <v/>
-      </c>
-      <c r="H13" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>2227</v>
+      </c>
+      <c r="H13" s="19">
         <v>25749</v>
       </c>
     </row>
-    <row r="14" ht="25.5" customHeight="1" s="1">
-      <c r="A14" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maria Stuarda </t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Donizetti</t>
-        </is>
-      </c>
-      <c r="C14" s="18" t="inlineStr">
-        <is>
-          <t>Producción: Palau de les Arts, Dutch National Opera, Teatro di San Carlo</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="n">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>10, 13, 16, 19 y 22 de diciembre</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="E14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="3">
         <v>6573</v>
       </c>
       <c r="G14" s="3">
-        <f>F14/D14</f>
-        <v/>
-      </c>
-      <c r="H14" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>1314.6</v>
+      </c>
+      <c r="H14" s="22">
         <v>454588.76</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="1">
-      <c r="A15" s="27" t="inlineStr">
-        <is>
-          <t>Pan y Toros</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Asenjo Barbieri</t>
-        </is>
-      </c>
-      <c r="C15" s="21" t="inlineStr">
-        <is>
-          <t>Producción: Teatro de la Zarzuela</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="4">
         <v>5</v>
       </c>
-      <c r="E15" s="20" t="inlineStr">
-        <is>
-          <t>2**, 4, 8, 11 y 12 de noviembre</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="n">
+      <c r="E15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="5">
         <v>5044</v>
       </c>
       <c r="G15" s="5">
-        <f>F15/D15</f>
-        <v/>
-      </c>
-      <c r="H15" s="28" t="n">
-        <v>219138.5</v>
+        <f t="shared" si="0"/>
+        <v>1008.8</v>
+      </c>
+      <c r="H15" s="19">
+        <v>219138.50000000003</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="1">
-      <c r="A16" s="13" t="inlineStr">
-        <is>
-          <t>Opening Night</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C16" s="18" t="inlineStr">
-        <is>
-          <t>La Veronal</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>13 y 14 de mayo</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="E16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="3">
         <v>1765</v>
       </c>
       <c r="G16" s="3">
-        <f>F16/D16</f>
-        <v/>
-      </c>
-      <c r="H16" s="26" t="n">
-        <v>41215.6</v>
+        <f t="shared" si="0"/>
+        <v>882.5</v>
+      </c>
+      <c r="H16" s="22">
+        <v>41215.599999999999</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="1">
-      <c r="A17" s="27" t="inlineStr">
-        <is>
-          <t>Carmen</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>Bizet</t>
-        </is>
-      </c>
-      <c r="C17" s="21" t="inlineStr">
-        <is>
-          <t>Compañía Nacional de Danza</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="20" t="inlineStr">
-        <is>
-          <t>29, 30 de junio, 1 y 2 de julio</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="n">
+      <c r="E17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="5">
         <v>5446</v>
       </c>
       <c r="G17" s="5">
-        <f>F17/D17</f>
-        <v/>
-      </c>
-      <c r="H17" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>1361.5</v>
+      </c>
+      <c r="H17" s="19">
         <v>244199.82</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="1">
-      <c r="A18" s="13" t="inlineStr">
-        <is>
-          <t>Malditas plumas</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C18" s="18" t="inlineStr">
-        <is>
-          <t>Sol Picó</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="n">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">27, 28 y 29 de octubre </t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n">
+      <c r="E18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="3">
         <v>544</v>
       </c>
       <c r="G18" s="3">
-        <f>F18/D18</f>
-        <v/>
-      </c>
-      <c r="H18" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>181.33333333333334</v>
+      </c>
+      <c r="H18" s="22">
         <v>10246.25</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="1">
-      <c r="A19" s="27" t="inlineStr">
-        <is>
-          <t>Marina Rebeka</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C19" s="21" t="inlineStr">
-        <is>
-          <t>Marina Rebeka</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="20" t="inlineStr">
-        <is>
-          <t>4 de febrero</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="n">
+      <c r="E19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="5">
         <v>406</v>
       </c>
       <c r="G19" s="5">
-        <f>F19/D19</f>
-        <v/>
-      </c>
-      <c r="H19" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="H19" s="19">
         <v>29985.15</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="1">
-      <c r="A20" s="13" t="inlineStr">
-        <is>
-          <t>Andrè Schuen</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Brahms</t>
-        </is>
-      </c>
-      <c r="C20" s="18" t="inlineStr">
-        <is>
-          <t>Andrè Schuen</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>1 de abril</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="n">
+      <c r="E20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="3">
         <v>665</v>
       </c>
       <c r="G20" s="3">
-        <f>F20/D20</f>
-        <v/>
-      </c>
-      <c r="H20" s="26" t="n">
-        <v>17590.55</v>
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="H20" s="22">
+        <v>17590.550000000003</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="1">
-      <c r="A21" s="27" t="inlineStr">
-        <is>
-          <t>Marianne Crebassa</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C21" s="21" t="inlineStr">
-        <is>
-          <t>Marianne Crebassa</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="20" t="inlineStr">
-        <is>
-          <t>7 de mayo</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="n">
+      <c r="E21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="5">
         <v>765</v>
       </c>
       <c r="G21" s="5">
-        <f>F21/D21</f>
-        <v/>
-      </c>
-      <c r="H21" s="28" t="n">
-        <v>20345.85</v>
+        <f t="shared" si="0"/>
+        <v>765</v>
+      </c>
+      <c r="H21" s="19">
+        <v>20345.849999999999</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="1">
-      <c r="A22" s="13" t="inlineStr">
-        <is>
-          <t>Lise Davidsen</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C22" s="18" t="inlineStr">
-        <is>
-          <t>Lise Davidsen</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="n">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>11 de octubre</t>
-        </is>
-      </c>
-      <c r="F22" s="3" t="n">
+      <c r="E22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="3">
         <v>665</v>
       </c>
       <c r="G22" s="3">
-        <f>F22/D22</f>
-        <v/>
-      </c>
-      <c r="H22" s="26" t="n">
-        <v>17208.83</v>
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+      <c r="H22" s="22">
+        <v>17208.830000000002</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="1">
-      <c r="A23" s="27" t="inlineStr">
-        <is>
-          <t>Gerald Finley</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C23" s="21" t="inlineStr">
-        <is>
-          <t>Gerald Finley</t>
-        </is>
-      </c>
-      <c r="D23" s="4" t="n">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="20" t="inlineStr">
-        <is>
-          <t>3 de diciembre</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="n">
+      <c r="E23" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="5">
         <v>520</v>
       </c>
       <c r="G23" s="5">
-        <f>F23/D23</f>
-        <v/>
-      </c>
-      <c r="H23" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="H23" s="19">
         <v>13033.6</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="1">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>Juan Diego Flórez</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C24" s="18" t="inlineStr">
-        <is>
-          <t>Juan Diego Flórez</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="n">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>28 de mayo</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="n">
+      <c r="E24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="3">
         <v>1516</v>
       </c>
       <c r="G24" s="3">
-        <f>F24/D24</f>
-        <v/>
-      </c>
-      <c r="H24" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>1516</v>
+      </c>
+      <c r="H24" s="22">
         <v>113225.7</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="1">
-      <c r="A25" s="27" t="inlineStr">
-        <is>
-          <t>Más allá del bien y del mal</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C25" s="21" t="inlineStr">
-        <is>
-          <t>Jakub Józef Orliński, Il Pomo d'Oro</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="20" t="inlineStr">
-        <is>
-          <t>29 de octubre</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="n">
+      <c r="E25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="5">
         <v>947</v>
       </c>
       <c r="G25" s="5">
-        <f>F25/D25</f>
-        <v/>
-      </c>
-      <c r="H25" s="28" t="n">
-        <v>41511.2</v>
+        <f t="shared" si="0"/>
+        <v>947</v>
+      </c>
+      <c r="H25" s="19">
+        <v>41511.199999999997</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="1">
-      <c r="A26" s="13" t="inlineStr">
-        <is>
-          <t>Forgotten Arias</t>
-        </is>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C26" s="18" t="inlineStr">
-        <is>
-          <t>Philippe Jaroussky, Le Concert de la Loge</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>30 de noviembre</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="n">
+      <c r="E26" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="3">
         <v>1061</v>
       </c>
       <c r="G26" s="3">
-        <f>F26/D26</f>
-        <v/>
-      </c>
-      <c r="H26" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>1061</v>
+      </c>
+      <c r="H26" s="22">
         <v>47966.6</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="1">
-      <c r="A27" s="27" t="inlineStr">
-        <is>
-          <t>Gustavo Gimeno</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>Brahms, Mozart</t>
-        </is>
-      </c>
-      <c r="C27" s="21" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="n">
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="20" t="inlineStr">
-        <is>
-          <t>26 y 28* de enero</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="n">
+      <c r="E27" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="5">
         <v>1297</v>
       </c>
       <c r="G27" s="5">
-        <f>F27/D27</f>
-        <v/>
-      </c>
-      <c r="H27" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>648.5</v>
+      </c>
+      <c r="H27" s="19">
         <v>31470.41</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="1">
-      <c r="A28" s="13" t="inlineStr">
-        <is>
-          <t>James Gaffigan</t>
-        </is>
-      </c>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>Mahler</t>
-        </is>
-      </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="3">
         <v>2</v>
       </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10 y 11* de febrero </t>
-        </is>
-      </c>
-      <c r="F28" s="3" t="n">
+      <c r="E28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="3">
         <v>1467</v>
       </c>
       <c r="G28" s="3">
-        <f>F28/D28</f>
-        <v/>
-      </c>
-      <c r="H28" s="26" t="n">
-        <v>40961.38</v>
+        <f t="shared" si="0"/>
+        <v>733.5</v>
+      </c>
+      <c r="H28" s="22">
+        <v>40961.379999999997</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="1">
-      <c r="A29" s="27" t="inlineStr">
-        <is>
-          <t>Antonello Manacorda</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="inlineStr">
-        <is>
-          <t>Palau, Debussy, Berlioz</t>
-        </is>
-      </c>
-      <c r="C29" s="21" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D29" s="4" t="n">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" s="20" t="inlineStr">
-        <is>
-          <t>24 y 25* de marzo</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="n">
+      <c r="E29" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="5">
         <v>1458</v>
       </c>
       <c r="G29" s="5">
-        <f>F29/D29</f>
-        <v/>
-      </c>
-      <c r="H29" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="H29" s="19">
         <v>37431.61</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" s="1">
-      <c r="A30" s="13" t="inlineStr">
-        <is>
-          <t>Andrés Orozco-Estrada</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Mozart, Bartók</t>
-        </is>
-      </c>
-      <c r="C30" s="18" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n">
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>10 de mayo</t>
-        </is>
-      </c>
-      <c r="F30" s="3" t="n">
+      <c r="E30" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="3">
         <v>1034</v>
       </c>
       <c r="G30" s="3">
-        <f>F30/D30</f>
-        <v/>
-      </c>
-      <c r="H30" s="26" t="n">
+        <f t="shared" si="0"/>
+        <v>1034</v>
+      </c>
+      <c r="H30" s="22">
         <v>18728.37</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" s="1">
-      <c r="A31" s="27" t="inlineStr">
-        <is>
-          <t>Fabio Luisi</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="inlineStr">
-        <is>
-          <t>Richard Strauss</t>
-        </is>
-      </c>
-      <c r="C31" s="21" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D31" s="4" t="n">
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" s="20" t="inlineStr">
-        <is>
-          <t>8 y 9* de junio</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="n">
+      <c r="E31" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="5">
         <v>1424</v>
       </c>
       <c r="G31" s="5">
-        <f>F31/D31</f>
-        <v/>
-      </c>
-      <c r="H31" s="28" t="n">
-        <v>35649.05</v>
+        <f t="shared" si="0"/>
+        <v>712</v>
+      </c>
+      <c r="H31" s="19">
+        <v>35649.050000000003</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" s="1">
-      <c r="A32" s="13" t="inlineStr">
-        <is>
-          <t>James Gaffigan</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>R. Strauss, Mozart</t>
-        </is>
-      </c>
-      <c r="C32" s="18" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="n">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="10" t="inlineStr">
-        <is>
-          <t>1, 2 y 10 de septiembre</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="n">
+      <c r="E32" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="3">
         <v>1280</v>
       </c>
       <c r="G32" s="3">
-        <f>F32/D32</f>
-        <v/>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <f t="shared" si="0"/>
+        <v>426.66666666666669</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" s="1">
-      <c r="A33" s="27" t="inlineStr">
-        <is>
-          <t>Mark Elder</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="inlineStr">
-        <is>
-          <t>Mahler, Shostakóvich</t>
-        </is>
-      </c>
-      <c r="C33" s="21" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="n">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="4">
         <v>1</v>
       </c>
-      <c r="E33" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20 y 21* de octubre </t>
-        </is>
-      </c>
-      <c r="F33" s="5" t="n">
+      <c r="E33" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="5">
         <v>1150</v>
       </c>
       <c r="G33" s="5">
-        <f>F33/D33</f>
-        <v/>
-      </c>
-      <c r="H33" s="28" t="n">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="H33" s="19">
         <v>32813.29</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" s="1">
-      <c r="A34" s="13" t="inlineStr">
-        <is>
-          <t>James Gaffigan</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Albéniz, Wagner, Chaikovski</t>
-        </is>
-      </c>
-      <c r="C34" s="18" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="n">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="3">
         <v>2</v>
       </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>16** y 17* de noviembre</t>
-        </is>
-      </c>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G34" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1" s="1">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>Gustavo Gimeno</t>
-        </is>
-      </c>
-      <c r="B35" s="4" t="inlineStr">
-        <is>
-          <t>Sibelius, Mahler</t>
-        </is>
-      </c>
-      <c r="C35" s="21" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D35" s="4" t="n">
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">15, 17*** y 20* de diciembre </t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="n">
+      <c r="E35" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" s="5">
         <v>1467</v>
       </c>
       <c r="G35" s="5">
-        <f>F35/D35</f>
-        <v/>
-      </c>
-      <c r="H35" s="28" t="n">
+        <f t="shared" ref="G35:G50" si="1">F35/D35</f>
+        <v>733.5</v>
+      </c>
+      <c r="H35" s="19">
         <v>43249</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" s="1">
-      <c r="A36" s="13" t="inlineStr">
-        <is>
-          <t>L'universo sulla pelle</t>
-        </is>
-      </c>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C36" s="18" t="inlineStr">
-        <is>
-          <t>La Tendresa</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="n">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="3">
         <v>1</v>
       </c>
-      <c r="E36" s="10" t="inlineStr">
-        <is>
-          <t>22 de marzo</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="n">
+      <c r="E36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="3">
         <v>300</v>
       </c>
       <c r="G36" s="3">
-        <f>F36/D36</f>
-        <v/>
-      </c>
-      <c r="H36" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H36" s="22">
         <v>4736.74</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1" s="1">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>La soberbia abatida por la humildad de San Miguel</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Francisco Hernández Illana</t>
-        </is>
-      </c>
-      <c r="C37" s="21" t="inlineStr">
-        <is>
-          <t>Concerto 1700</t>
-        </is>
-      </c>
-      <c r="D37" s="4" t="n">
+    <row r="37" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37" s="20" t="inlineStr">
-        <is>
-          <t>23 de marzo</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="n">
+      <c r="E37" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="5">
         <v>204</v>
       </c>
       <c r="G37" s="5">
-        <f>F37/D37</f>
-        <v/>
-      </c>
-      <c r="H37" s="28" t="n">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="H37" s="19">
         <v>3226.54</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1" s="1">
-      <c r="A38" s="13" t="inlineStr">
-        <is>
-          <t>Mediterrània</t>
-        </is>
-      </c>
-      <c r="B38" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C38" s="18" t="inlineStr">
-        <is>
-          <t>Capella de Ministrers</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="n">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3">
         <v>1</v>
       </c>
-      <c r="E38" s="10" t="inlineStr">
-        <is>
-          <t>29 de marzo</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="n">
+      <c r="E38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="3">
         <v>412</v>
       </c>
       <c r="G38" s="3">
-        <f>F38/D38</f>
-        <v/>
-      </c>
-      <c r="H38" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>412</v>
+      </c>
+      <c r="H38" s="22">
         <v>7056.63</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1" s="1">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>Afectos amantes</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C39" s="21" t="inlineStr">
-        <is>
-          <t>Al Ayre Español</t>
-        </is>
-      </c>
-      <c r="D39" s="4" t="n">
+    <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="4">
         <v>1</v>
       </c>
-      <c r="E39" s="20" t="inlineStr">
-        <is>
-          <t>31 de marzo</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="n">
+      <c r="E39" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="5">
         <v>297</v>
       </c>
       <c r="G39" s="5">
-        <f>F39/D39</f>
-        <v/>
-      </c>
-      <c r="H39" s="28" t="n">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="H39" s="19">
         <v>4694.79</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1" s="1">
-      <c r="A40" s="13" t="inlineStr">
-        <is>
-          <t>Marina Heredia</t>
-        </is>
-      </c>
-      <c r="B40" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C40" s="18" t="inlineStr">
-        <is>
-          <t>Marina Heredia</t>
-        </is>
-      </c>
-      <c r="D40" s="3" t="n">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="10" t="inlineStr">
-        <is>
-          <t>24 de febrero</t>
-        </is>
-      </c>
-      <c r="F40" s="3" t="n">
+      <c r="E40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="3">
         <v>406</v>
       </c>
       <c r="G40" s="3">
-        <f>F40/D40</f>
-        <v/>
-      </c>
-      <c r="H40" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="H40" s="22">
         <v>10713.66</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1" s="1">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>Alba Molina</t>
-        </is>
-      </c>
-      <c r="B41" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C41" s="21" t="inlineStr">
-        <is>
-          <t>Alba Molina</t>
-        </is>
-      </c>
-      <c r="D41" s="4" t="n">
+    <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="20" t="inlineStr">
-        <is>
-          <t>19 de mayo</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="n">
+      <c r="E41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="5">
         <v>378</v>
       </c>
       <c r="G41" s="5">
-        <f>F41/D41</f>
-        <v/>
-      </c>
-      <c r="H41" s="28" t="n">
-        <v>9819.059999999999</v>
+        <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="H41" s="19">
+        <v>9819.06</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" s="1">
-      <c r="A42" s="13" t="inlineStr">
-        <is>
-          <t>Vicente Amigo</t>
-        </is>
-      </c>
-      <c r="B42" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C42" s="18" t="inlineStr">
-        <is>
-          <t>Vicente Amigo</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="n">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3">
         <v>1</v>
       </c>
-      <c r="E42" s="10" t="inlineStr">
-        <is>
-          <t>3 de noviembre</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="n">
+      <c r="E42" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="3">
         <v>1392</v>
       </c>
       <c r="G42" s="3">
-        <f>F42/D42</f>
-        <v/>
-      </c>
-      <c r="H42" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>1392</v>
+      </c>
+      <c r="H42" s="22">
         <v>5956.45</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1" s="1">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>Rufus Wainwright</t>
-        </is>
-      </c>
-      <c r="B43" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C43" s="21" t="inlineStr">
-        <is>
-          <t>Rufus Wainwright</t>
-        </is>
-      </c>
-      <c r="D43" s="4" t="n">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="4">
         <v>1</v>
       </c>
-      <c r="E43" s="20" t="inlineStr">
-        <is>
-          <t>19 de abril</t>
-        </is>
-      </c>
-      <c r="F43" s="5" t="n">
+      <c r="E43" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="5">
         <v>1258</v>
       </c>
       <c r="G43" s="5">
-        <f>F43/D43</f>
-        <v/>
-      </c>
-      <c r="H43" s="28" t="n">
+        <f t="shared" si="1"/>
+        <v>1258</v>
+      </c>
+      <c r="H43" s="19">
         <v>7340.42</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1" s="1">
-      <c r="A44" s="13" t="inlineStr">
-        <is>
-          <t>50 años sin Nino Bravo</t>
-        </is>
-      </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C44" s="18" t="inlineStr">
-        <is>
-          <t>Serafín Zubiri, Orquesta de la Comunitat Valenciana</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="n">
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="3">
         <v>1</v>
       </c>
-      <c r="E44" s="10" t="inlineStr">
-        <is>
-          <t>6 de octubre</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n">
+      <c r="E44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="3">
         <v>1465</v>
       </c>
       <c r="G44" s="3">
-        <f>F44/D44</f>
-        <v/>
-      </c>
-      <c r="H44" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>1465</v>
+      </c>
+      <c r="H44" s="22">
         <v>38967</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1" s="1">
-      <c r="A45" s="27" t="inlineStr">
-        <is>
-          <t>Pep Gimeno “Botifarra”</t>
-        </is>
-      </c>
-      <c r="B45" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C45" s="21" t="inlineStr">
-        <is>
-          <t>Pep Gimeno "Botifarra"</t>
-        </is>
-      </c>
-      <c r="D45" s="4" t="n">
+    <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="4">
         <v>1</v>
       </c>
-      <c r="E45" s="20" t="inlineStr">
-        <is>
-          <t>13 de enero</t>
-        </is>
-      </c>
-      <c r="F45" s="5" t="n">
+      <c r="E45" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F45" s="5">
         <v>1404</v>
       </c>
       <c r="G45" s="5">
-        <f>F45/D45</f>
-        <v/>
-      </c>
-      <c r="H45" s="28" t="n">
+        <f t="shared" si="1"/>
+        <v>1404</v>
+      </c>
+      <c r="H45" s="19">
         <v>2091.92</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1" s="1">
-      <c r="A46" s="13" t="inlineStr">
-        <is>
-          <t>Neus Ferri</t>
-        </is>
-      </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C46" s="18" t="inlineStr">
-        <is>
-          <t>Neus Ferri</t>
-        </is>
-      </c>
-      <c r="D46" s="3" t="n">
+    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="3">
         <v>1</v>
       </c>
-      <c r="E46" s="10" t="inlineStr">
-        <is>
-          <t>20 de enero</t>
-        </is>
-      </c>
-      <c r="F46" s="3" t="n">
+      <c r="E46" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="3">
         <v>283</v>
       </c>
       <c r="G46" s="3">
-        <f>F46/D46</f>
-        <v/>
-      </c>
-      <c r="H46" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="H46" s="22">
         <v>270.56</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1" s="1">
-      <c r="A47" s="27" t="inlineStr">
-        <is>
-          <t>Marala</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C47" s="21" t="inlineStr">
-        <is>
-          <t>Marala</t>
-        </is>
-      </c>
-      <c r="D47" s="4" t="n">
+    <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="20" t="inlineStr">
-        <is>
-          <t>21 de enero</t>
-        </is>
-      </c>
-      <c r="F47" s="5" t="n">
+      <c r="E47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="5">
         <v>344</v>
       </c>
       <c r="G47" s="5">
-        <f>F47/D47</f>
-        <v/>
-      </c>
-      <c r="H47" s="28" t="n">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="H47" s="19">
         <v>341.46</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1" s="1">
-      <c r="A48" s="13" t="inlineStr">
-        <is>
-          <t>Mireia Vives i Borja Penalva</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C48" s="18" t="inlineStr">
-        <is>
-          <t>Mireia Vives y Borja Penalva</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="n">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" s="3">
         <v>1</v>
       </c>
-      <c r="E48" s="10" t="inlineStr">
-        <is>
-          <t>27 de enero</t>
-        </is>
-      </c>
-      <c r="F48" s="3" t="n">
+      <c r="E48" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="3">
         <v>339</v>
       </c>
       <c r="G48" s="3">
-        <f>F48/D48</f>
-        <v/>
-      </c>
-      <c r="H48" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>339</v>
+      </c>
+      <c r="H48" s="22">
         <v>335.51</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1" s="1">
-      <c r="A49" s="27" t="inlineStr">
-        <is>
-          <t>Esther</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C49" s="21" t="inlineStr">
-        <is>
-          <t>Esther</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="n">
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="4">
         <v>1</v>
       </c>
-      <c r="E49" s="20" t="inlineStr">
-        <is>
-          <t>28 de enero</t>
-        </is>
-      </c>
-      <c r="F49" s="5" t="n">
+      <c r="E49" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="5">
         <v>249</v>
       </c>
       <c r="G49" s="5">
-        <f>F49/D49</f>
-        <v/>
-      </c>
-      <c r="H49" s="28" t="n">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="H49" s="19">
         <v>235</v>
       </c>
     </row>
-    <row r="50" ht="25.5" customHeight="1" s="1">
-      <c r="A50" s="13" t="inlineStr">
-        <is>
-          <t>Matins a Les Arts</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>Varios</t>
-        </is>
-      </c>
-      <c r="C50" s="18" t="inlineStr">
-        <is>
-          <t>Orquesta de la Comunitat Valenciana, Corazón de la Generalitat Valenciana, Centro de Perfeccionamiento</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
+    <row r="50" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="3">
         <v>4</v>
       </c>
-      <c r="E50" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 de febrero/5 de marzo 
-2 de abril/7 de mayo  </t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n">
+      <c r="E50" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="3">
         <v>8407</v>
       </c>
       <c r="G50" s="3">
-        <f>F50/D50</f>
-        <v/>
-      </c>
-      <c r="H50" s="26" t="n">
+        <f t="shared" si="1"/>
+        <v>2101.75</v>
+      </c>
+      <c r="H50" s="22">
         <v>25123</v>
       </c>
     </row>
-    <row r="51">
-      <c r="D51" s="8" t="n"/>
-      <c r="E51" s="16" t="n"/>
-      <c r="G51" s="18" t="n"/>
-      <c r="H51" s="29" t="n"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D51" s="8"/>
+      <c r="E51" s="16"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="15"/>
     </row>
-    <row r="52" ht="18.75" customHeight="1" s="1">
-      <c r="A52" s="17" t="n"/>
-      <c r="B52" s="17" t="inlineStr">
-        <is>
-          <t>Salas</t>
-        </is>
-      </c>
-      <c r="D52" s="8" t="n"/>
-      <c r="E52" s="16" t="n"/>
-      <c r="H52" s="29" t="n"/>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="16"/>
+      <c r="H52" s="15"/>
     </row>
-    <row r="53" ht="15" customHeight="1" s="1">
-      <c r="A53" s="13" t="inlineStr">
-        <is>
-          <t>Sala Principal</t>
-        </is>
-      </c>
-      <c r="B53" s="13" t="inlineStr">
-        <is>
-          <t>Sala Principal</t>
-        </is>
-      </c>
-      <c r="D53" s="8" t="n"/>
-      <c r="H53" s="8" t="n"/>
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
-    <row r="54" ht="15" customHeight="1" s="1">
-      <c r="A54" s="12" t="inlineStr">
-        <is>
-          <t>Auditori Superior</t>
-        </is>
-      </c>
-      <c r="B54" s="12" t="inlineStr">
-        <is>
-          <t>Auditorio Superior</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="n"/>
-      <c r="H54" s="8" t="n"/>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
-    <row r="55" ht="15" customHeight="1" s="1">
-      <c r="A55" s="13" t="inlineStr">
-        <is>
-          <t>Teatre Martín i Soler</t>
-        </is>
-      </c>
-      <c r="B55" s="13" t="inlineStr">
-        <is>
-          <t>Teatro Martín i Soler</t>
-        </is>
-      </c>
-      <c r="D55" s="8" t="n"/>
-      <c r="H55" s="8" t="n"/>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
-    <row r="56" ht="15" customHeight="1" s="1">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t>Aula Magistral</t>
-        </is>
-      </c>
-      <c r="B56" s="12" t="inlineStr">
-        <is>
-          <t>Aula Magistral</t>
-        </is>
-      </c>
-      <c r="D56" s="8" t="n"/>
-      <c r="H56" s="8" t="n"/>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>Nota: (*) Función realizada en Castelló de la Plana. (**) Concierto realizado en el Palau de la Música. (***) Concierto realizado en Alicante.</t>
-        </is>
-      </c>
-      <c r="B57" s="11" t="n"/>
-      <c r="D57" s="8" t="n"/>
-      <c r="H57" s="8" t="n"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="2"/>
     </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>Fuente: Palau de les Arts Reina Sofía.</t>
-        </is>
-      </c>
-      <c r="D58" s="8" t="n"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="8"/>
     </row>
-    <row r="59">
-      <c r="D59" s="8" t="n"/>
-      <c r="H59" s="8" t="n"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
-    <row r="60">
-      <c r="D60" s="8" t="n"/>
-      <c r="H60" s="8" t="n"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D60" s="8"/>
+      <c r="H60" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>